--- a/examples/USA OGD/gun offenders/profile.xlsx
+++ b/examples/USA OGD/gun offenders/profile.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +435,30 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>default_count</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>default_value</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>most_frequent_value</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -508,18 +517,26 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>f??</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>166</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>17</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>['01K04873', '023A10838', '026C09059', '026K19034', '036G07553', '039H04732', '03L03830', '043L16294', '044J12261', '106A12593', '106D13687', '106D13999', '106D88900', '106F10599', '106F11867', '106F14206', 'f??']</t>
         </is>
@@ -578,18 +595,26 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>guilty</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Guilty</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
         <v>140</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>4</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>['60', 'GIUTLY', 'Guilty', 'guilty']</t>
         </is>
@@ -648,18 +673,22 @@
       <c r="P4" t="n">
         <v>12</v>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>8/09/2012</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="n">
         <v>116</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>11</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>['02/18/2011', '03/28/2012', '04/13/2012', '07/18/2012', '07/26/2010', '1/02/2013', '1/11/2013', '10/23/2012', '10/24/2012', '12/27/2011', '8/09/2012']</t>
         </is>
@@ -718,18 +747,26 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>Incarcerated</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>267</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>2</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>['Baltimore', 'Incarcerated']</t>
         </is>
@@ -788,18 +825,26 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Terrell</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
         <v>141</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>23</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>['Abram', 'Antonio', 'Bobby', 'Brian', 'Corey', 'Damaim', 'Damien', 'Demetrius', 'Donald', 'Harold', 'James', 'Jason', 'Jonathan', 'Joseph', 'Joshua', 'Kali', 'Kevin', 'Mark', 'Markie', 'Melvin', 'Percy', 'Sterling', 'Terrell']</t>
         </is>
@@ -858,18 +903,22 @@
       <c r="P7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Woodard</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="n">
         <v>118</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>18</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>['Alexander', 'Anton', 'Beau', 'Clinton', 'Costello', 'Dante', 'Domminick', 'Donnell', 'Lee', 'Leroy', 'Lowell', 'Malcolm', 'Mendell', 'Robert', 'Taylor', 'Timothy', 'Van', 'Woodard']</t>
         </is>
@@ -928,18 +977,26 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Williams</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Griffin</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
         <v>156</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>23</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>['Actie', 'Alston', 'Barber', 'Bowens', 'Cole', 'Cummings', 'Griffin', 'Hall', 'Hamlet', 'Johnson', 'Kennedy', 'Mayes', 'Mcclurkin', 'Melton', 'Moody', 'Moulton', 'Oliver', 'Porter', 'Saunders', 'Singfield', 'Taylor', 'Thompson', 'Williams']</t>
         </is>
@@ -998,18 +1055,26 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
         <v>50</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>14</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>['18', '19', '20', '21', '22', '23', '24', '25', '27', '30', '31', '3119', '33', '37']</t>
         </is>
@@ -1068,18 +1133,26 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
         <v>96</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>1</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>['Male']</t>
         </is>
@@ -1138,18 +1211,26 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>Black</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
         <v>120</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>1</v>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>['Black']</t>
         </is>
@@ -1208,18 +1289,26 @@
       <c r="P12" t="n">
         <v>4</v>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>WESTERN</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>NORTHWESTERN</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
         <v>216</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>7</v>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>['EASTERN', 'NORTHEASTERN', 'NORTHERN', 'NORTHWESTERN', 'SOUTHEASTERN', 'SOUTHWESTERN', 'WESTERN']</t>
         </is>
@@ -1278,18 +1367,22 @@
       <c r="P13" t="n">
         <v>4</v>
       </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>834</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
         <v>60</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>17</v>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>['211', '213', '315', '321', '334', '421', '435', '522', '612', '621', '622', '623', '624', '632', '634', '733', '834']</t>
         </is>
@@ -1348,18 +1441,22 @@
       <c r="P14" t="n">
         <v>4</v>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Windsor Hills</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
         <v>232</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>20</v>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>['Arlington', 'Cedmont', 'Central Park Heights', 'Dolfield', 'Dorchester', 'Fallstaff', 'Glen Oaks', 'Johnston Square', 'Jonestown', 'Madison-Eastend', 'Millhill', 'New Northwood', 'Oliver', 'Panway/Braddish Avenue', 'Park Circle', 'Penn North', 'Purnell', 'Washington Hill', 'West Forest Park', 'Windsor Hills']</t>
         </is>
@@ -1418,18 +1515,22 @@
       <c r="P15" t="n">
         <v>4</v>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>(39.36795070060, -76.59786994640)</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
         <v>660</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>20</v>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>['(39.27776397470, -76.65970139070)', '(39.29153626510, -76.59283389250)', '(39.29332478400, -76.60628205430)', '(39.29925861590, -76.57811432180)', '(39.30124191480, -76.61067474690)', '(39.30950718280, -76.59628873780)', '(39.31261200620, -76.64367365640)', '(39.31453005690, -76.66321280780)', '(39.31590114090, -76.69209786750)', '(39.31895779670, -76.68905693920)', '(39.32026313800, -76.70992740660)', '(39.33026869930, -76.66134014310)', '(39.33354300370, -76.68324117770)', '(39.33514308290, -76.68253455510)', '(39.34058323510, -76.66650766080)', '(39.34570941610, -76.53174310380)', '(39.34671664470, -76.68137170660)', '(39.35086409000, -76.59773732820)', '(39.36324635090, -76.70866424490)', '(39.36795070060, -76.59786994640)']</t>
         </is>

--- a/examples/USA OGD/gun offenders/profile.xlsx
+++ b/examples/USA OGD/gun offenders/profile.xlsx
@@ -450,15 +450,25 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>most_frequent_count</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>csim</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -471,7 +481,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -531,12 +541,18 @@
         </is>
       </c>
       <c r="T2" t="n">
+        <v>8</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>166</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>17</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>['01K04873', '023A10838', '026C09059', '026K19034', '036G07553', '039H04732', '03L03830', '043L16294', '044J12261', '106A12593', '106D13687', '106D13999', '106D88900', '106F10599', '106F11867', '106F14206', 'f??']</t>
         </is>
@@ -549,7 +565,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -609,12 +625,18 @@
         </is>
       </c>
       <c r="T3" t="n">
+        <v>21</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
         <v>140</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>4</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>['60', 'GIUTLY', 'Guilty', 'guilty']</t>
         </is>
@@ -627,7 +649,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -683,12 +705,18 @@
       </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="n">
+        <v>12</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>116</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>11</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>['02/18/2011', '03/28/2012', '04/13/2012', '07/18/2012', '07/26/2010', '1/02/2013', '1/11/2013', '10/23/2012', '10/24/2012', '12/27/2011', '8/09/2012']</t>
         </is>
@@ -701,7 +729,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -761,12 +789,18 @@
         </is>
       </c>
       <c r="T5" t="n">
+        <v>17</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
         <v>267</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>2</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>['Baltimore', 'Incarcerated']</t>
         </is>
@@ -779,7 +813,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -839,12 +873,18 @@
         </is>
       </c>
       <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>141</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>23</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>['Abram', 'Antonio', 'Bobby', 'Brian', 'Corey', 'Damaim', 'Damien', 'Demetrius', 'Donald', 'Harold', 'James', 'Jason', 'Jonathan', 'Joseph', 'Joshua', 'Kali', 'Kevin', 'Mark', 'Markie', 'Melvin', 'Percy', 'Sterling', 'Terrell']</t>
         </is>
@@ -857,7 +897,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -913,12 +953,18 @@
       </c>
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>118</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>18</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>['Alexander', 'Anton', 'Beau', 'Clinton', 'Costello', 'Dante', 'Domminick', 'Donnell', 'Lee', 'Leroy', 'Lowell', 'Malcolm', 'Mendell', 'Robert', 'Taylor', 'Timothy', 'Van', 'Woodard']</t>
         </is>
@@ -931,7 +977,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -991,12 +1037,18 @@
         </is>
       </c>
       <c r="T8" t="n">
+        <v>2</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>156</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>23</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>['Actie', 'Alston', 'Barber', 'Bowens', 'Cole', 'Cummings', 'Griffin', 'Hall', 'Hamlet', 'Johnson', 'Kennedy', 'Mayes', 'Mcclurkin', 'Melton', 'Moody', 'Moulton', 'Oliver', 'Porter', 'Saunders', 'Singfield', 'Taylor', 'Thompson', 'Williams']</t>
         </is>
@@ -1009,7 +1061,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1069,12 +1121,18 @@
         </is>
       </c>
       <c r="T9" t="n">
+        <v>4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>50</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>14</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>['18', '19', '20', '21', '22', '23', '24', '25', '27', '30', '31', '3119', '33', '37']</t>
         </is>
@@ -1087,7 +1145,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1147,12 +1205,18 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="U10" t="n">
         <v>1</v>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="V10" t="n">
+        <v>96</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>['Male']</t>
         </is>
@@ -1165,7 +1229,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1225,12 +1289,18 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="U11" t="n">
         <v>1</v>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="V11" t="n">
+        <v>120</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>['Black']</t>
         </is>
@@ -1243,7 +1313,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1303,12 +1373,18 @@
         </is>
       </c>
       <c r="T12" t="n">
+        <v>10</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
         <v>216</v>
       </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
         <v>7</v>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>['EASTERN', 'NORTHEASTERN', 'NORTHERN', 'NORTHWESTERN', 'SOUTHEASTERN', 'SOUTHWESTERN', 'WESTERN']</t>
         </is>
@@ -1321,7 +1397,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1377,12 +1453,18 @@
       </c>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
+        <v>4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>60</v>
       </c>
-      <c r="U13" t="n">
+      <c r="W13" t="n">
         <v>17</v>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>['211', '213', '315', '321', '334', '421', '435', '522', '612', '621', '622', '623', '624', '632', '634', '733', '834']</t>
         </is>
@@ -1395,7 +1477,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1451,12 +1533,18 @@
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
+        <v>4</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="V14" t="n">
         <v>232</v>
       </c>
-      <c r="U14" t="n">
+      <c r="W14" t="n">
         <v>20</v>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>['Arlington', 'Cedmont', 'Central Park Heights', 'Dolfield', 'Dorchester', 'Fallstaff', 'Glen Oaks', 'Johnston Square', 'Jonestown', 'Madison-Eastend', 'Millhill', 'New Northwood', 'Oliver', 'Panway/Braddish Avenue', 'Park Circle', 'Penn North', 'Purnell', 'Washington Hill', 'West Forest Park', 'Windsor Hills']</t>
         </is>
@@ -1469,7 +1557,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1525,12 +1613,18 @@
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="n">
+        <v>4</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
         <v>660</v>
       </c>
-      <c r="U15" t="n">
+      <c r="W15" t="n">
         <v>20</v>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>['(39.27776397470, -76.65970139070)', '(39.29153626510, -76.59283389250)', '(39.29332478400, -76.60628205430)', '(39.29925861590, -76.57811432180)', '(39.30124191480, -76.61067474690)', '(39.30950718280, -76.59628873780)', '(39.31261200620, -76.64367365640)', '(39.31453005690, -76.66321280780)', '(39.31590114090, -76.69209786750)', '(39.31895779670, -76.68905693920)', '(39.32026313800, -76.70992740660)', '(39.33026869930, -76.66134014310)', '(39.33354300370, -76.68324117770)', '(39.33514308290, -76.68253455510)', '(39.34058323510, -76.66650766080)', '(39.34570941610, -76.53174310380)', '(39.34671664470, -76.68137170660)', '(39.35086409000, -76.59773732820)', '(39.36324635090, -76.70866424490)', '(39.36795070060, -76.59786994640)']</t>
         </is>
